--- a/DATA/M025/T1_RADIOMICS_OUTPUT/M025_radiomics.xlsx
+++ b/DATA/M025/T1_RADIOMICS_OUTPUT/M025_radiomics.xlsx
@@ -13,7 +13,190 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+  <si>
+    <t>Patient_ID</t>
+  </si>
+  <si>
+    <t>00678952</t>
+  </si>
+  <si>
+    <t>Family_Name</t>
+  </si>
+  <si>
+    <t>M025</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>ACQ_DATE</t>
+  </si>
+  <si>
+    <t>20190405</t>
+  </si>
+  <si>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>District1</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Eccentricity</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Solidity</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>Entropy</t>
+  </si>
+  <si>
+    <t>Homogeneity</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>SumAverage</t>
+  </si>
+  <si>
+    <t>Variance1</t>
+  </si>
+  <si>
+    <t>Dissimilarity</t>
+  </si>
+  <si>
+    <t>AutoCorrelation</t>
+  </si>
+  <si>
+    <t>Coarseness</t>
+  </si>
+  <si>
+    <t>Contrast1</t>
+  </si>
+  <si>
+    <t>Busyness</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>SRE</t>
+  </si>
+  <si>
+    <t>LRE</t>
+  </si>
+  <si>
+    <t>GLN</t>
+  </si>
+  <si>
+    <t>RLN</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>LGRE</t>
+  </si>
+  <si>
+    <t>HGRE</t>
+  </si>
+  <si>
+    <t>SRLGE</t>
+  </si>
+  <si>
+    <t>SRHGE</t>
+  </si>
+  <si>
+    <t>LRLGE</t>
+  </si>
+  <si>
+    <t>LRHGE</t>
+  </si>
+  <si>
+    <t>GLV</t>
+  </si>
+  <si>
+    <t>RLV</t>
+  </si>
+  <si>
+    <t>SZE</t>
+  </si>
+  <si>
+    <t>LZE</t>
+  </si>
+  <si>
+    <t>GLN1</t>
+  </si>
+  <si>
+    <t>ZSN</t>
+  </si>
+  <si>
+    <t>ZP</t>
+  </si>
+  <si>
+    <t>LGZE</t>
+  </si>
+  <si>
+    <t>HGZE</t>
+  </si>
+  <si>
+    <t>SZLG</t>
+  </si>
+  <si>
+    <t>SZHGE</t>
+  </si>
+  <si>
+    <t>LZLGE</t>
+  </si>
+  <si>
+    <t>LZHGE</t>
+  </si>
+  <si>
+    <t>GLV1</t>
+  </si>
+  <si>
+    <t>ZSV</t>
+  </si>
   <si>
     <t>Patient_ID</t>
   </si>
@@ -216,7 +399,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -225,13 +408,15 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -302,207 +487,207 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="H2" s="0">
-        <v>100.84698848342417</v>
+        <v>100.84698848342416</v>
       </c>
       <c r="I2" s="0">
-        <v>-1.4730521353156758</v>
+        <v>-1.4730521353156805</v>
       </c>
       <c r="J2" s="0">
-        <v>4.4000286523356413</v>
+        <v>4.4000286523356547</v>
       </c>
       <c r="K2" s="0">
-        <v>0.70927113809119391</v>
+        <v>0.70927113809130482</v>
       </c>
       <c r="L2" s="0">
         <v>38.288379438153292</v>
       </c>
       <c r="M2" s="0">
-        <v>0.93594132029340316</v>
+        <v>0.93594132029340038</v>
       </c>
       <c r="N2" s="0">
         <v>8613</v>
@@ -535,7 +720,7 @@
         <v>3792.7050554721795</v>
       </c>
       <c r="X2" s="0">
-        <v>0.0010386492449330092</v>
+        <v>0.0010386492449330094</v>
       </c>
       <c r="Y2" s="0">
         <v>0.95209257206832798</v>
@@ -568,7 +753,7 @@
         <v>0.0062549536265763825</v>
       </c>
       <c r="AI2" s="0">
-        <v>3787.9418120616224</v>
+        <v>3787.9418120616219</v>
       </c>
       <c r="AJ2" s="0">
         <v>0.0059351866582491829</v>
